--- a/QAF.xlsx
+++ b/QAF.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Strasshofer\Documents\Programming\Python Scripts\QAF Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Strasshofer\Documents\Programming\Python Scripts\Incident Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEA4C44-F50F-4450-8F0E-9F8A4A5ACBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AFD723-160C-4CE5-96C6-3C3D0CDA9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="4710" windowWidth="26505" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="63">
   <si>
     <t>location</t>
   </si>
@@ -55,6 +68,12 @@
     <t>correction</t>
   </si>
   <si>
+    <t>Building B</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
     <t>Joe Schmoe</t>
   </si>
   <si>
@@ -73,6 +92,9 @@
     <t>Removed unit from Optiturn and created NPT back to store.</t>
   </si>
   <si>
+    <t>Building A</t>
+  </si>
+  <si>
     <t>Strasshofer</t>
   </si>
   <si>
@@ -100,9 +122,6 @@
     <t>Narp</t>
   </si>
   <si>
-    <t>Building A</t>
-  </si>
-  <si>
     <t>John Smith</t>
   </si>
   <si>
@@ -121,12 +140,6 @@
     <t>Order has been placed.</t>
   </si>
   <si>
-    <t>Building B</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
     <t>Kate Brown</t>
   </si>
   <si>
@@ -176,6 +189,39 @@
   </si>
   <si>
     <t>Sam Wilson</t>
+  </si>
+  <si>
+    <t>C:\Users\Strasshofer\Documents/QAF\store.txt</t>
+  </si>
+  <si>
+    <t>21-04-23</t>
+  </si>
+  <si>
+    <t>04-18-23</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>22-04-23</t>
+  </si>
+  <si>
+    <t>04-22-23</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Select_Dept.</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Coaching/Suggestions</t>
   </si>
 </sst>
 </file>
@@ -528,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +624,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>45033</v>
@@ -590,68 +636,68 @@
         <v>45026</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>420</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>44671</v>
@@ -660,33 +706,33 @@
         <v>44666</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>44670</v>
@@ -704,7 +750,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>250</v>
@@ -713,15 +759,15 @@
         <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>44669</v>
@@ -733,22 +779,22 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>250</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -774,7 +820,7 @@
         <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>1000</v>
@@ -783,15 +829,15 @@
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>44667</v>
@@ -809,7 +855,7 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>500</v>
@@ -818,15 +864,15 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>44666</v>
@@ -838,22 +884,22 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,7 +925,7 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>500</v>
@@ -888,15 +934,15 @@
         <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>44664</v>
@@ -914,7 +960,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>400</v>
@@ -923,15 +969,15 @@
         <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>44663</v>
@@ -943,22 +989,22 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -984,7 +1030,7 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>800</v>
@@ -993,7 +1039,217 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15">
+        <v>250</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>400</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
